--- a/sample/machine_state.xlsx
+++ b/sample/machine_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\APP-cloud\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\APP-cloud-full\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -243,6 +243,7 @@
   </si>
   <si>
     <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,7 +633,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/sample/machine_state.xlsx
+++ b/sample/machine_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\APP-cloud-full\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\apps\III-kint_lite\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>機台編號</t>
   </si>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +637,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -968,25 +972,25 @@
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
         <v>100</v>
       </c>
       <c r="H11" s="2">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I11" s="2">
         <v>0.1</v>
